--- a/Result/Orbit/Manufacturing/IND.xlsx
+++ b/Result/Orbit/Manufacturing/IND.xlsx
@@ -463,7 +463,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>16.75237579755089</v>
+        <v>16.80258040437884</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>16.77044375204378</v>
+        <v>16.59284198675625</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>16.36999593737045</v>
+        <v>16.60153484918847</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>16.6644546925096</v>
+        <v>16.24847487297797</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>16.70780360032094</v>
+        <v>16.52080894292695</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>16.41801286266626</v>
+        <v>16.57606480178337</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>16.22158380961347</v>
+        <v>16.41504403953297</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>16.20954935388915</v>
+        <v>16.13287043981391</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>16.1015348492608</v>
+        <v>16.122525706359</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>16.90284589656693</v>
+        <v>16.1046094278721</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>16.59759644222204</v>
+        <v>16.8900156416884</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>15.67626016051273</v>
+        <v>16.68101659680597</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>15.80079981708075</v>
+        <v>15.67352471486816</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>15.91571210784389</v>
+        <v>15.70184540987881</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>16.76413813082256</v>
+        <v>15.98469633224854</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>17.86585059655905</v>
+        <v>16.78892872163546</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>17.59634080064139</v>
+        <v>17.98937189426445</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>16.51857853000575</v>
+        <v>17.77725302903659</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>15.71931601640516</v>
+        <v>16.50818822498097</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>15.18053671327382</v>
+        <v>15.69769085640526</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>15.92702301820897</v>
+        <v>15.07543529375721</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>15.30702128315309</v>
+        <v>15.76248904381319</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>15.5587017264204</v>
+        <v>15.25410157404106</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>15.58738664870186</v>
+        <v>15.48742580404733</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -703,7 +703,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>15.82724574050271</v>
+        <v>15.58924970853306</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>15.97301704470109</v>
+        <v>15.88570377962035</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>17.30365333111118</v>
+        <v>16.00111100985464</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -733,7 +733,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>16.86456777544126</v>
+        <v>17.32027254176903</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -743,7 +743,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>17.09867414895781</v>
+        <v>17.09407638530166</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -753,7 +753,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>17.14357766689418</v>
+        <v>17.19933588978252</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -763,7 +763,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>17.02993424949175</v>
+        <v>17.15669097298906</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -773,7 +773,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>16.13933744469147</v>
+        <v>17.12685129622364</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -783,7 +783,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>15.81692300717572</v>
+        <v>16.14294876441161</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -793,7 +793,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>15.25302269276287</v>
+        <v>15.8261848416002</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -803,7 +803,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>15.06557011109184</v>
+        <v>14.93005187255181</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -813,7 +813,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>15.58385458634904</v>
+        <v>14.99855036342502</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -823,7 +823,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>15.16223713314817</v>
+        <v>15.52338483932015</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -874,50 +874,70 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>15.16223714332969</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>15.11196887585336</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14.13538792880248</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.18160778978702</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>15.16223714332969</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>15.0054880219103</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13.82954863487709</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.35221974219027</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>15.16223714332969</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>14.89372347712862</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13.00111871059329</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.44053765495927</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>15.16223714332969</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>14.74708052748192</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.78875582395975</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.89810666105615</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>15.16223714332969</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>14.70405174169476</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12.21135346085267</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.37069087914523</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -965,7 +985,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>16.75237579755089</v>
+        <v>16.72050556418992</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -975,7 +995,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>16.77044375204378</v>
+        <v>16.61891832870354</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -985,7 +1005,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>16.36999593737045</v>
+        <v>16.78696005897345</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -995,7 +1015,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>16.6644546925096</v>
+        <v>16.32852976186832</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1005,7 +1025,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>16.70780360032094</v>
+        <v>16.6310947567753</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -1015,7 +1035,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>16.41801286266626</v>
+        <v>16.71946624366018</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1025,7 +1045,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>16.22158380961347</v>
+        <v>16.55984986062492</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -1035,7 +1055,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>16.20954935388915</v>
+        <v>16.30788004997708</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1045,7 +1065,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>16.1015348492608</v>
+        <v>16.22899799394925</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1055,7 +1075,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>16.90284589656693</v>
+        <v>16.10693078967076</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1065,7 +1085,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>16.59759644222204</v>
+        <v>16.82091344121886</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1075,7 +1095,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>15.67626016051273</v>
+        <v>16.64365293242847</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1085,7 +1105,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>15.80079981708075</v>
+        <v>15.59321579091935</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1095,7 +1115,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>15.91571210784389</v>
+        <v>15.60295813679651</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1105,7 +1125,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>16.76413813082256</v>
+        <v>15.82689537861611</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1115,7 +1135,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>17.86585059655905</v>
+        <v>16.78725367669172</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1125,7 +1145,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>17.59634080064139</v>
+        <v>17.82623058824934</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1135,7 +1155,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>16.51857853000575</v>
+        <v>17.59033055739648</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1145,7 +1165,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>15.71931601640516</v>
+        <v>16.69989840176128</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1155,7 +1175,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>15.18053671327382</v>
+        <v>15.63056625293207</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1165,7 +1185,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>15.92702301820897</v>
+        <v>15.11274650001674</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1175,7 +1195,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>15.30702128315309</v>
+        <v>15.83539177907474</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1185,7 +1205,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>15.5587017264204</v>
+        <v>15.25687779773964</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1195,7 +1215,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>15.58738664870186</v>
+        <v>15.52166740120032</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1205,7 +1225,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>15.82724574050271</v>
+        <v>15.49376878699569</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1215,7 +1235,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>15.97301704470109</v>
+        <v>15.90593841633294</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1225,7 +1245,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>17.30365333111118</v>
+        <v>15.93022601039278</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1235,7 +1255,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>16.86456777544126</v>
+        <v>17.27039356419816</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1245,7 +1265,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>17.09867414895781</v>
+        <v>16.97562694708145</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1255,7 +1275,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>17.14357766689418</v>
+        <v>17.1327557977611</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1265,7 +1285,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>17.02993424949175</v>
+        <v>17.18301574058809</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1275,7 +1295,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>16.13933744469147</v>
+        <v>17.18755688711895</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -1285,7 +1305,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>15.81692300717572</v>
+        <v>16.25221996473913</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -1295,7 +1315,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>15.25302269276287</v>
+        <v>15.89580120673624</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -1305,7 +1325,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>15.06557011109184</v>
+        <v>15.17694673116765</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -1315,7 +1335,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>15.58385458634904</v>
+        <v>14.8449777444506</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -1325,7 +1345,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>15.16223713314817</v>
+        <v>15.47929996281416</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -1335,7 +1355,7 @@
         <v>2017</v>
       </c>
       <c r="B39" t="n">
-        <v>15.01823875014704</v>
+        <v>15.21808443650884</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
@@ -1345,7 +1365,7 @@
         <v>2018</v>
       </c>
       <c r="B40" t="n">
-        <v>14.88153066744756</v>
+        <v>15.0962648447348</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
@@ -1355,7 +1375,7 @@
         <v>2019</v>
       </c>
       <c r="B41" t="n">
-        <v>13.47361810745156</v>
+        <v>14.86562237779355</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
@@ -1365,7 +1385,7 @@
         <v>2020</v>
       </c>
       <c r="B42" t="n">
-        <v>13.68338528944649</v>
+        <v>13.43628821712544</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
@@ -1375,7 +1395,7 @@
         <v>2021</v>
       </c>
       <c r="B43" t="n">
-        <v>14.07022547391186</v>
+        <v>13.58873746713616</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
@@ -1426,50 +1446,70 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>14.07022515275944</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>14.04420546576718</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.19710690284323</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.93959085242487</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>14.07022515275944</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>13.97349342968843</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12.77230073748464</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.42131365933028</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>14.07022515275944</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>14.08731658825994</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.09473822165789</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.73579578784465</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>14.07022515275944</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>14.14435980520108</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.23418422020318</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.04290346199003</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>14.07022515275944</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>14.05393353268442</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12.02969609631764</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.15949310211298</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
